--- a/src/raw_data/errors_list.xlsx
+++ b/src/raw_data/errors_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6585E4E9-B5AA-5E42-BCA3-2703230E0F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB454EB4-1025-0A45-AB86-065388161F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
+    <workbookView xWindow="17160" yWindow="1020" windowWidth="16880" windowHeight="21060" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -995,7 +995,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1043,11 +1043,9 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1143,7 +1141,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B284FB57-23FC-3F49-8756-084DBE39D068}" name="Table1" displayName="Table1" ref="A1:M96" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:M96" xr:uid="{B284FB57-23FC-3F49-8756-084DBE39D068}"/>
+  <autoFilter ref="A1:M96" xr:uid="{B284FB57-23FC-3F49-8756-084DBE39D068}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="POSTAL_CITY"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M96">
     <sortCondition ref="A1:A96"/>
   </sortState>
@@ -1487,16 +1491,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="10.6640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="31.1640625" customWidth="1"/>
     <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
@@ -1547,7 +1551,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>1101</v>
       </c>
@@ -1565,7 +1569,7 @@
         <v>89</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>_xlfn.CONCAT(F2,": ", E2)</f>
+        <f t="shared" ref="G2:G33" si="0">_xlfn.CONCAT(F2,": ", E2)</f>
         <v>NAME: Missing Data</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -1583,7 +1587,7 @@
         <v>'1101': 'NAME: Missing Data',</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1102</v>
       </c>
@@ -1601,7 +1605,7 @@
         <v>89</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>_xlfn.CONCAT(F3,": ", E3)</f>
+        <f t="shared" si="0"/>
         <v>NAME: Unnecessary Spaces</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1617,11 +1621,11 @@
         <v>260</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O66" si="0">_xlfn.CONCAT("'",A3,"': '",G3,"',")</f>
+        <f t="shared" ref="O3:O66" si="1">_xlfn.CONCAT("'",A3,"': '",G3,"',")</f>
         <v>'1102': 'NAME: Unnecessary Spaces',</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>1103</v>
       </c>
@@ -1639,7 +1643,7 @@
         <v>89</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>_xlfn.CONCAT(F4,": ", E4)</f>
+        <f t="shared" si="0"/>
         <v>NAME: Invalid Characters</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -1655,11 +1659,11 @@
         <v>260</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1103': 'NAME: Invalid Characters',</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>1104</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>89</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>_xlfn.CONCAT(F5,": ", E5)</f>
+        <f t="shared" si="0"/>
         <v>NAME: Formatting Issue</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -1691,11 +1695,11 @@
         <v>260</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1104': 'NAME: Formatting Issue',</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>1105</v>
       </c>
@@ -1713,7 +1717,7 @@
         <v>89</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>_xlfn.CONCAT(F6,": ", E6)</f>
+        <f t="shared" si="0"/>
         <v>NAME: Duplicates</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -1729,11 +1733,11 @@
         <v>260</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1105': 'NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>1106</v>
       </c>
@@ -1751,7 +1755,7 @@
         <v>89</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>_xlfn.CONCAT(F7,": ", E7)</f>
+        <f t="shared" si="0"/>
         <v>NAME: Two names in one field</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -1763,11 +1767,11 @@
         <v>260</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1106': 'NAME: Two names in one field',</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>1107</v>
       </c>
@@ -1785,7 +1789,7 @@
         <v>89</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>_xlfn.CONCAT(F8,": ", E8)</f>
+        <f t="shared" si="0"/>
         <v>NAME: Initials present</v>
       </c>
       <c r="H8" s="7"/>
@@ -1795,11 +1799,11 @@
         <v>260</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1107': 'NAME: Initials present',</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>1108</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>266</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>269</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1817,18 +1821,18 @@
         <v>89</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>_xlfn.CONCAT(F9,": ", E9)</f>
+        <f t="shared" si="0"/>
         <v>NAME: replacing šćčž to scz</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>260</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1108': 'NAME: replacing šćčž to scz',</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>1201</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>93</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>_xlfn.CONCAT(F10,": ", E10)</f>
+        <f t="shared" si="0"/>
         <v>SURNAME: Missing Data</v>
       </c>
       <c r="H10" s="11" t="s">
@@ -1860,11 +1864,11 @@
         <v>260</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1201': 'SURNAME: Missing Data',</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>1202</v>
       </c>
@@ -1882,7 +1886,7 @@
         <v>93</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f>_xlfn.CONCAT(F11,": ", E11)</f>
+        <f t="shared" si="0"/>
         <v>SURNAME: Unnecessary Spaces</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -1898,11 +1902,11 @@
         <v>260</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1202': 'SURNAME: Unnecessary Spaces',</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>1203</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>93</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f>_xlfn.CONCAT(F12,": ", E12)</f>
+        <f t="shared" si="0"/>
         <v>SURNAME: Invalid Characters</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -1936,11 +1940,11 @@
         <v>260</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1203': 'SURNAME: Invalid Characters',</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>1204</v>
       </c>
@@ -1958,7 +1962,7 @@
         <v>93</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f>_xlfn.CONCAT(F13,": ", E13)</f>
+        <f t="shared" si="0"/>
         <v>SURNAME: Formatting Issue</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -1972,11 +1976,11 @@
         <v>260</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1204': 'SURNAME: Formatting Issue',</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>1205</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>93</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f>_xlfn.CONCAT(F14,": ", E14)</f>
+        <f t="shared" si="0"/>
         <v>SURNAME: Duplicates</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -2010,11 +2014,11 @@
         <v>260</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1205': 'SURNAME: Duplicates',</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>258</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>266</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>269</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2032,18 +2036,18 @@
         <v>93</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f>_xlfn.CONCAT(F15,": ", E15)</f>
+        <f t="shared" si="0"/>
         <v>SURNAME: replacing šćčž to scz</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>260</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1206': 'SURNAME: replacing šćčž to scz',</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>2101</v>
       </c>
@@ -2061,7 +2065,7 @@
         <v>99</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f>_xlfn.CONCAT(F16,": ", E16)</f>
+        <f t="shared" si="0"/>
         <v>EMAIL: Missing Data</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -2075,11 +2079,11 @@
         <v>260</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2101': 'EMAIL: Missing Data',</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>2101</v>
       </c>
@@ -2097,7 +2101,7 @@
         <v>99</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f>_xlfn.CONCAT(F17,": ", E17)</f>
+        <f t="shared" si="0"/>
         <v>EMAIL: Missing Data</v>
       </c>
       <c r="H17" s="7" t="s">
@@ -2113,11 +2117,11 @@
         <v>260</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2101': 'EMAIL: Missing Data',</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>2102</v>
       </c>
@@ -2135,7 +2139,7 @@
         <v>99</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f>_xlfn.CONCAT(F18,": ", E18)</f>
+        <f t="shared" si="0"/>
         <v>EMAIL: Unnecessary Spaces</v>
       </c>
       <c r="H18" s="3"/>
@@ -2145,11 +2149,11 @@
         <v>260</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2102': 'EMAIL: Unnecessary Spaces',</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>2103</v>
       </c>
@@ -2167,7 +2171,7 @@
         <v>99</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f>_xlfn.CONCAT(F19,": ", E19)</f>
+        <f t="shared" si="0"/>
         <v>EMAIL: Invalid Characters</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -2183,11 +2187,11 @@
         <v>260</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2103': 'EMAIL: Invalid Characters',</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>2103</v>
       </c>
@@ -2205,7 +2209,7 @@
         <v>99</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f>_xlfn.CONCAT(F20,": ", E20)</f>
+        <f t="shared" si="0"/>
         <v>EMAIL: Invalid Characters</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -2219,11 +2223,11 @@
         <v>260</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2103': 'EMAIL: Invalid Characters',</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>2104</v>
       </c>
@@ -2241,7 +2245,7 @@
         <v>99</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f>_xlfn.CONCAT(F21,": ", E21)</f>
+        <f t="shared" si="0"/>
         <v>EMAIL: Formatting Issue</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -2255,11 +2259,11 @@
         <v>260</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2104': 'EMAIL: Formatting Issue',</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>2105</v>
       </c>
@@ -2277,7 +2281,7 @@
         <v>99</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f>_xlfn.CONCAT(F22,": ", E22)</f>
+        <f t="shared" si="0"/>
         <v>EMAIL: Possibly Two Emails</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -2291,11 +2295,11 @@
         <v>260</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2105': 'EMAIL: Possibly Two Emails',</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>2106</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>99</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f>_xlfn.CONCAT(F23,": ", E23)</f>
+        <f t="shared" si="0"/>
         <v>EMAIL: Possibly Invalid domain</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -2327,11 +2331,11 @@
         <v>260</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2106': 'EMAIL: Possibly Invalid domain',</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>3101</v>
       </c>
@@ -2349,7 +2353,7 @@
         <v>102</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f>_xlfn.CONCAT(F24,": ", E24)</f>
+        <f t="shared" si="0"/>
         <v>PHONE: Missing Data</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -2365,11 +2369,11 @@
         <v>260</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3101': 'PHONE: Missing Data',</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>3101</v>
       </c>
@@ -2387,7 +2391,7 @@
         <v>102</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f>_xlfn.CONCAT(F25,": ", E25)</f>
+        <f t="shared" si="0"/>
         <v>PHONE: Missing Data</v>
       </c>
       <c r="H25" s="12" t="s">
@@ -2403,11 +2407,11 @@
         <v>260</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3101': 'PHONE: Missing Data',</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>3102</v>
       </c>
@@ -2425,7 +2429,7 @@
         <v>102</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f>_xlfn.CONCAT(F26,": ", E26)</f>
+        <f t="shared" si="0"/>
         <v>PHONE: Unnecessary Spaces</v>
       </c>
       <c r="H26" s="12"/>
@@ -2435,11 +2439,11 @@
         <v>260</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3102': 'PHONE: Unnecessary Spaces',</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>3103</v>
       </c>
@@ -2457,7 +2461,7 @@
         <v>102</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f>_xlfn.CONCAT(F27,": ", E27)</f>
+        <f t="shared" si="0"/>
         <v>PHONE: Invalid characters</v>
       </c>
       <c r="H27" s="6" t="s">
@@ -2471,11 +2475,11 @@
         <v>260</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3103': 'PHONE: Invalid characters',</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>3104</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>102</v>
       </c>
       <c r="G28" s="2" t="str">
-        <f>_xlfn.CONCAT(F28,": ", E28)</f>
+        <f t="shared" si="0"/>
         <v>PHONE: Formatting Issue</v>
       </c>
       <c r="H28" s="11" t="s">
@@ -2507,11 +2511,11 @@
         <v>260</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3104': 'PHONE: Formatting Issue',</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>3105</v>
       </c>
@@ -2529,7 +2533,7 @@
         <v>102</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f>_xlfn.CONCAT(F29,": ", E29)</f>
+        <f t="shared" si="0"/>
         <v>PHONE: Too many digits</v>
       </c>
       <c r="H29" s="6" t="s">
@@ -2541,11 +2545,11 @@
         <v>260</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3105': 'PHONE: Too many digits',</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>3106</v>
       </c>
@@ -2563,18 +2567,18 @@
         <v>102</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f>_xlfn.CONCAT(F30,": ", E30)</f>
+        <f t="shared" si="0"/>
         <v>PHONE: Too little digits</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>260</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3106': 'PHONE: Too little digits',</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>3107</v>
       </c>
@@ -2592,7 +2596,7 @@
         <v>102</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f>_xlfn.CONCAT(F31,": ", E31)</f>
+        <f t="shared" si="0"/>
         <v>PHONE: Two phone numbers</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -2604,11 +2608,11 @@
         <v>260</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3107': 'PHONE: Two phone numbers',</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>3108</v>
       </c>
@@ -2626,7 +2630,7 @@
         <v>102</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f>_xlfn.CONCAT(F32,": ", E32)</f>
+        <f t="shared" si="0"/>
         <v>PHONE: Different country format</v>
       </c>
       <c r="H32" s="12" t="s">
@@ -2640,11 +2644,11 @@
         <v>260</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3108': 'PHONE: Different country format',</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>4101</v>
       </c>
@@ -2662,7 +2666,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f>_xlfn.CONCAT(F33,": ", E33)</f>
+        <f t="shared" si="0"/>
         <v>STREET_NAME: Missing Data</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -2676,11 +2680,11 @@
         <v>260</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4101': 'STREET_NAME: Missing Data',</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>4101</v>
       </c>
@@ -2698,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="2" t="str">
-        <f>_xlfn.CONCAT(F34,": ", E34)</f>
+        <f t="shared" ref="G34:G65" si="2">_xlfn.CONCAT(F34,": ", E34)</f>
         <v>STREET_NAME: Missing Data</v>
       </c>
       <c r="H34" s="4" t="s">
@@ -2712,11 +2716,11 @@
         <v>260</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4101': 'STREET_NAME: Missing Data',</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>4102</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>9</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f>_xlfn.CONCAT(F35,": ", E35)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Unnecessary Spaces</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -2750,11 +2754,11 @@
         <v>260</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4102': 'STREET_NAME: Unnecessary Spaces',</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>4103</v>
       </c>
@@ -2772,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f>_xlfn.CONCAT(F36,": ", E36)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Invalid characters</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -2786,11 +2790,11 @@
         <v>260</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4103</v>
       </c>
@@ -2808,7 +2812,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f>_xlfn.CONCAT(F37,": ", E37)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Invalid characters</v>
       </c>
       <c r="H37" t="s">
@@ -2818,11 +2822,11 @@
         <v>260</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4103</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>9</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f>_xlfn.CONCAT(F38,": ", E38)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Invalid characters</v>
       </c>
       <c r="H38" t="s">
@@ -2850,11 +2854,11 @@
         <v>260</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4103</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f>_xlfn.CONCAT(F39,": ", E39)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Invalid characters</v>
       </c>
       <c r="H39" t="s">
@@ -2882,11 +2886,11 @@
         <v>260</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4104</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f>_xlfn.CONCAT(F40,": ", E40)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Formatting Issue</v>
       </c>
       <c r="H40" t="s">
@@ -2917,11 +2921,11 @@
         <v>260</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4104': 'STREET_NAME: Formatting Issue',</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>4105</v>
       </c>
@@ -2939,7 +2943,7 @@
         <v>9</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f>_xlfn.CONCAT(F41,": ", E41)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Contains house number</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -2955,11 +2959,11 @@
         <v>260</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4105': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>4105</v>
       </c>
@@ -2977,7 +2981,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f>_xlfn.CONCAT(F42,": ", E42)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Contains house number</v>
       </c>
       <c r="H42" s="2" t="s">
@@ -2989,11 +2993,11 @@
         <v>260</v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4105': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>4105</v>
       </c>
@@ -3011,7 +3015,7 @@
         <v>9</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f>_xlfn.CONCAT(F43,": ", E43)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Contains house number</v>
       </c>
       <c r="H43" s="2" t="s">
@@ -3027,11 +3031,11 @@
         <v>260</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4105': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>4106</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>9</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f>_xlfn.CONCAT(F44,": ", E44)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Contains variation of BŠ</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -3065,11 +3069,11 @@
         <v>260</v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4106': 'STREET_NAME: Contains variation of BŠ',</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>4106</v>
       </c>
@@ -3087,7 +3091,7 @@
         <v>9</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f>_xlfn.CONCAT(F45,": ", E45)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Contains variation of BŠ</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -3103,11 +3107,11 @@
         <v>260</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4106': 'STREET_NAME: Contains variation of BŠ',</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>4107</v>
       </c>
@@ -3125,7 +3129,7 @@
         <v>9</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f>_xlfn.CONCAT(F46,": ", E46)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Invalid abbreviations</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -3141,11 +3145,11 @@
         <v>260</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4107': 'STREET_NAME: Invalid abbreviations',</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>4108</v>
       </c>
@@ -3163,7 +3167,7 @@
         <v>9</v>
       </c>
       <c r="G47" s="2" t="str">
-        <f>_xlfn.CONCAT(F47,": ", E47)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: No space after full stop</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -3177,11 +3181,11 @@
         <v>260</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4108': 'STREET_NAME: No space after full stop',</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>4109</v>
       </c>
@@ -3199,7 +3203,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="2" t="str">
-        <f>_xlfn.CONCAT(F48,": ", E48)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Only numbers</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -3211,11 +3215,11 @@
         <v>260</v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4109': 'STREET_NAME: Only numbers',</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>4110</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f>_xlfn.CONCAT(F49,": ", E49)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -3247,11 +3251,11 @@
         <v>260</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>4110</v>
       </c>
@@ -3269,7 +3273,7 @@
         <v>9</v>
       </c>
       <c r="G50" s="2" t="str">
-        <f>_xlfn.CONCAT(F50,": ", E50)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -3283,11 +3287,11 @@
         <v>260</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>4110</v>
       </c>
@@ -3305,7 +3309,7 @@
         <v>9</v>
       </c>
       <c r="G51" s="2" t="str">
-        <f>_xlfn.CONCAT(F51,": ", E51)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -3321,11 +3325,11 @@
         <v>260</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>4110</v>
       </c>
@@ -3343,7 +3347,7 @@
         <v>9</v>
       </c>
       <c r="G52" s="2" t="str">
-        <f>_xlfn.CONCAT(F52,": ", E52)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -3359,11 +3363,11 @@
         <v>260</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>4110</v>
       </c>
@@ -3381,7 +3385,7 @@
         <v>9</v>
       </c>
       <c r="G53" s="2" t="str">
-        <f>_xlfn.CONCAT(F53,": ", E53)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -3397,11 +3401,11 @@
         <v>260</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>4110</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>9</v>
       </c>
       <c r="G54" s="2" t="str">
-        <f>_xlfn.CONCAT(F54,": ", E54)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -3435,11 +3439,11 @@
         <v>260</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>4110</v>
       </c>
@@ -3457,7 +3461,7 @@
         <v>9</v>
       </c>
       <c r="G55" s="2" t="str">
-        <f>_xlfn.CONCAT(F55,": ", E55)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -3473,11 +3477,11 @@
         <v>260</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>4110</v>
       </c>
@@ -3495,7 +3499,7 @@
         <v>9</v>
       </c>
       <c r="G56" s="2" t="str">
-        <f>_xlfn.CONCAT(F56,": ", E56)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="H56" s="2" t="s">
@@ -3511,11 +3515,11 @@
         <v>260</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>4110</v>
       </c>
@@ -3533,7 +3537,7 @@
         <v>9</v>
       </c>
       <c r="G57" s="2" t="str">
-        <f>_xlfn.CONCAT(F57,": ", E57)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="I57" t="s">
@@ -3543,11 +3547,11 @@
         <v>260</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>4111</v>
       </c>
@@ -3565,7 +3569,7 @@
         <v>9</v>
       </c>
       <c r="G58" s="2" t="str">
-        <f>_xlfn.CONCAT(F58,": ", E58)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Starts with number</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -3579,11 +3583,11 @@
         <v>260</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4111': 'STREET_NAME: Starts with number',</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>4112</v>
       </c>
@@ -3601,7 +3605,7 @@
         <v>9</v>
       </c>
       <c r="G59" s="2" t="str">
-        <f>_xlfn.CONCAT(F59,": ", E59)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Cannot contain digit at the end</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -3612,8 +3616,12 @@
       <c r="K59" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O59" t="str">
+        <f t="shared" si="1"/>
+        <v>'4112': 'STREET_NAME: Cannot contain digit at the end',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>4113</v>
       </c>
@@ -3631,18 +3639,18 @@
         <v>9</v>
       </c>
       <c r="G60" s="2" t="str">
-        <f>_xlfn.CONCAT(F60,": ", E60)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: Invalid digit in Street</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>260</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4113': 'STREET_NAME: Invalid digit in Street',</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4114</v>
       </c>
@@ -3650,7 +3658,7 @@
         <v>267</v>
       </c>
       <c r="C61" s="16"/>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="23" t="s">
         <v>269</v>
       </c>
       <c r="E61" t="s">
@@ -3660,18 +3668,18 @@
         <v>9</v>
       </c>
       <c r="G61" s="2" t="str">
-        <f>_xlfn.CONCAT(F61,": ", E61)</f>
+        <f t="shared" si="2"/>
         <v>STREET_NAME: replacing šćčž to scz</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>260</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4114': 'STREET_NAME: replacing šćčž to scz',</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>4201</v>
       </c>
@@ -3689,7 +3697,7 @@
         <v>5</v>
       </c>
       <c r="G62" s="2" t="str">
-        <f>_xlfn.CONCAT(F62,": ", E62)</f>
+        <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Missing Data</v>
       </c>
       <c r="H62" s="4" t="s">
@@ -3703,11 +3711,11 @@
         <v>260</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>4201</v>
       </c>
@@ -3725,7 +3733,7 @@
         <v>5</v>
       </c>
       <c r="G63" s="2" t="str">
-        <f>_xlfn.CONCAT(F63,": ", E63)</f>
+        <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Missing Data</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -3739,11 +3747,11 @@
         <v>260</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>4202</v>
       </c>
@@ -3761,7 +3769,7 @@
         <v>5</v>
       </c>
       <c r="G64" s="2" t="str">
-        <f>_xlfn.CONCAT(F64,": ", E64)</f>
+        <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Unnecessary spaces</v>
       </c>
       <c r="H64" s="9" t="s">
@@ -3775,11 +3783,11 @@
         <v>260</v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4202': 'HOUSE_NUMBER: Unnecessary spaces',</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>4203</v>
       </c>
@@ -3797,7 +3805,7 @@
         <v>5</v>
       </c>
       <c r="G65" s="2" t="str">
-        <f>_xlfn.CONCAT(F65,": ", E65)</f>
+        <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Contains variation of BŠ</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -3813,11 +3821,11 @@
         <v>260</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>4203</v>
       </c>
@@ -3835,7 +3843,7 @@
         <v>5</v>
       </c>
       <c r="G66" s="2" t="str">
-        <f>_xlfn.CONCAT(F66,": ", E66)</f>
+        <f t="shared" ref="G66:G97" si="3">_xlfn.CONCAT(F66,": ", E66)</f>
         <v>HOUSE_NUMBER: Contains variation of BŠ</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -3851,11 +3859,11 @@
         <v>260</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>4203</v>
       </c>
@@ -3873,7 +3881,7 @@
         <v>5</v>
       </c>
       <c r="G67" s="2" t="str">
-        <f>_xlfn.CONCAT(F67,": ", E67)</f>
+        <f t="shared" si="3"/>
         <v>HOUSE_NUMBER: Contains variation of BŠ</v>
       </c>
       <c r="H67" s="2"/>
@@ -3887,11 +3895,11 @@
         <v>260</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O81" si="1">_xlfn.CONCAT("'",A67,"': '",G67,"',")</f>
+        <f t="shared" ref="O67:O86" si="4">_xlfn.CONCAT("'",A67,"': '",G67,"',")</f>
         <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>4204</v>
       </c>
@@ -3909,7 +3917,7 @@
         <v>5</v>
       </c>
       <c r="G68" s="2" t="str">
-        <f>_xlfn.CONCAT(F68,": ", E68)</f>
+        <f t="shared" si="3"/>
         <v>HOUSE_NUMBER: No house number</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -3921,11 +3929,11 @@
         <v>260</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>'4204': 'HOUSE_NUMBER: No house number',</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>4204</v>
       </c>
@@ -3943,7 +3951,7 @@
         <v>5</v>
       </c>
       <c r="G69" s="2" t="str">
-        <f>_xlfn.CONCAT(F69,": ", E69)</f>
+        <f t="shared" si="3"/>
         <v>HOUSE_NUMBER: No house number</v>
       </c>
       <c r="H69" s="2"/>
@@ -3955,11 +3963,11 @@
         <v>260</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>'4204': 'HOUSE_NUMBER: No house number',</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
         <v>4205</v>
       </c>
@@ -3977,7 +3985,7 @@
         <v>5</v>
       </c>
       <c r="G70" s="2" t="str">
-        <f>_xlfn.CONCAT(F70,": ", E70)</f>
+        <f t="shared" si="3"/>
         <v>HOUSE_NUMBER: invalid combination</v>
       </c>
       <c r="H70" s="10" t="s">
@@ -3989,11 +3997,11 @@
         <v>260</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>'4205': 'HOUSE_NUMBER: invalid combination',</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
         <v>4206</v>
       </c>
@@ -4011,7 +4019,7 @@
         <v>5</v>
       </c>
       <c r="G71" s="2" t="str">
-        <f>_xlfn.CONCAT(F71,": ", E71)</f>
+        <f t="shared" si="3"/>
         <v>HOUSE_NUMBER: Leading 0</v>
       </c>
       <c r="H71" s="4" t="s">
@@ -4025,11 +4033,11 @@
         <v>260</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>'4206': 'HOUSE_NUMBER: Leading 0',</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
         <v>4207</v>
       </c>
@@ -4047,7 +4055,7 @@
         <v>5</v>
       </c>
       <c r="G72" s="2" t="str">
-        <f>_xlfn.CONCAT(F72,": ", E72)</f>
+        <f t="shared" si="3"/>
         <v>HOUSE_NUMBER: Spacing between components</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -4061,11 +4069,11 @@
         <v>260</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
         <v>4207</v>
       </c>
@@ -4083,7 +4091,7 @@
         <v>5</v>
       </c>
       <c r="G73" s="2" t="str">
-        <f>_xlfn.CONCAT(F73,": ", E73)</f>
+        <f t="shared" si="3"/>
         <v>HOUSE_NUMBER: Spacing between components</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -4097,11 +4105,11 @@
         <v>260</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
         <v>4207</v>
       </c>
@@ -4119,7 +4127,7 @@
         <v>5</v>
       </c>
       <c r="G74" s="2" t="str">
-        <f>_xlfn.CONCAT(F74,": ", E74)</f>
+        <f t="shared" si="3"/>
         <v>HOUSE_NUMBER: Spacing between components</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -4133,11 +4141,11 @@
         <v>260</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
         <v>4208</v>
       </c>
@@ -4155,7 +4163,7 @@
         <v>5</v>
       </c>
       <c r="G75" s="2" t="str">
-        <f>_xlfn.CONCAT(F75,": ", E75)</f>
+        <f t="shared" si="3"/>
         <v>HOUSE_NUMBER: Contains roman numerals</v>
       </c>
       <c r="H75" s="2" t="s">
@@ -4169,11 +4177,11 @@
         <v>260</v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>'4208': 'HOUSE_NUMBER: Contains roman numerals',</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4209</v>
       </c>
@@ -4191,18 +4199,18 @@
         <v>5</v>
       </c>
       <c r="G76" s="2" t="str">
-        <f>_xlfn.CONCAT(F76,": ", E76)</f>
+        <f t="shared" si="3"/>
         <v>HOUSE_NUMBER: Ends with full stop</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>260</v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>'4209': 'HOUSE_NUMBER: Ends with full stop',</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4210</v>
       </c>
@@ -4220,18 +4228,18 @@
         <v>5</v>
       </c>
       <c r="G77" s="2" t="str">
-        <f>_xlfn.CONCAT(F77,": ", E77)</f>
+        <f t="shared" si="3"/>
         <v>HOUSE_NUMBER: More than one number present</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>260</v>
       </c>
       <c r="O77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>'4210': 'HOUSE_NUMBER: More than one number present',</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4211</v>
       </c>
@@ -4249,18 +4257,18 @@
         <v>5</v>
       </c>
       <c r="G78" s="2" t="str">
-        <f>_xlfn.CONCAT(F78,": ", E78)</f>
+        <f t="shared" si="3"/>
         <v>HOUSE_NUMBER: Does not start with digit</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>260</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>'4211': 'HOUSE_NUMBER: Does not start with digit',</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4212</v>
       </c>
@@ -4278,18 +4286,18 @@
         <v>5</v>
       </c>
       <c r="G79" s="2" t="str">
-        <f>_xlfn.CONCAT(F79,": ", E79)</f>
+        <f t="shared" si="3"/>
         <v>HOUSE_NUMBER: More than 4 digits</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>260</v>
       </c>
       <c r="O79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>'4212': 'HOUSE_NUMBER: More than 4 digits',</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>4301</v>
       </c>
@@ -4309,7 +4317,7 @@
         <v>19</v>
       </c>
       <c r="G80" s="2" t="str">
-        <f>_xlfn.CONCAT(F80,": ", E80)</f>
+        <f t="shared" si="3"/>
         <v>ZIPCODE: Missing Data</v>
       </c>
       <c r="H80" s="8" t="s">
@@ -4325,11 +4333,11 @@
         <v>260</v>
       </c>
       <c r="O80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>'4301': 'ZIPCODE: Missing Data',</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
         <v>4302</v>
       </c>
@@ -4349,7 +4357,7 @@
         <v>19</v>
       </c>
       <c r="G81" s="2" t="str">
-        <f>_xlfn.CONCAT(F81,": ", E81)</f>
+        <f t="shared" si="3"/>
         <v>ZIPCODE: Unnecessary Spaces</v>
       </c>
       <c r="H81" s="12" t="s">
@@ -4365,11 +4373,11 @@
         <v>260</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>'4302': 'ZIPCODE: Unnecessary Spaces',</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
         <v>4303</v>
       </c>
@@ -4389,7 +4397,7 @@
         <v>19</v>
       </c>
       <c r="G82" s="2" t="str">
-        <f>_xlfn.CONCAT(F82,": ", E82)</f>
+        <f t="shared" si="3"/>
         <v>ZIPCODE: invalid characters</v>
       </c>
       <c r="H82" s="6" t="s">
@@ -4404,8 +4412,12 @@
       <c r="K82" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O82" t="str">
+        <f t="shared" si="4"/>
+        <v>'4303': 'ZIPCODE: invalid characters',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>4304</v>
       </c>
@@ -4425,7 +4437,7 @@
         <v>19</v>
       </c>
       <c r="G83" s="2" t="str">
-        <f>_xlfn.CONCAT(F83,": ", E83)</f>
+        <f t="shared" si="3"/>
         <v>ZIPCODE: Less than 4</v>
       </c>
       <c r="H83" s="2">
@@ -4438,8 +4450,12 @@
       <c r="K83" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O83" t="str">
+        <f t="shared" si="4"/>
+        <v>'4304': 'ZIPCODE: Less than 4',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>4305</v>
       </c>
@@ -4459,7 +4475,7 @@
         <v>19</v>
       </c>
       <c r="G84" s="2" t="str">
-        <f>_xlfn.CONCAT(F84,": ", E84)</f>
+        <f t="shared" si="3"/>
         <v>ZIPCODE: More than 4</v>
       </c>
       <c r="H84" s="2">
@@ -4472,8 +4488,12 @@
       <c r="K84" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O84" t="str">
+        <f t="shared" si="4"/>
+        <v>'4305': 'ZIPCODE: More than 4',</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>4306</v>
       </c>
@@ -4493,7 +4513,7 @@
         <v>19</v>
       </c>
       <c r="G85" s="2" t="str">
-        <f>_xlfn.CONCAT(F85,": ", E85)</f>
+        <f t="shared" si="3"/>
         <v>ZIPCODE: Contains Letters</v>
       </c>
       <c r="H85" s="7" t="s">
@@ -4508,8 +4528,12 @@
       <c r="K85" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O85" t="str">
+        <f t="shared" si="4"/>
+        <v>'4306': 'ZIPCODE: Contains Letters',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>4307</v>
       </c>
@@ -4529,7 +4553,7 @@
         <v>19</v>
       </c>
       <c r="G86" s="2" t="str">
-        <f>_xlfn.CONCAT(F86,": ", E86)</f>
+        <f t="shared" si="3"/>
         <v>ZIPCODE: Invalid Value</v>
       </c>
       <c r="H86" s="2">
@@ -4541,6 +4565,10 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2" t="s">
         <v>260</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="4"/>
+        <v>'4307': 'ZIPCODE: Invalid Value',</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -4563,7 +4591,7 @@
         <v>97</v>
       </c>
       <c r="G87" s="2" t="str">
-        <f>_xlfn.CONCAT(F87,": ", E87)</f>
+        <f t="shared" si="3"/>
         <v>POSTAL_CITY: Missing Data</v>
       </c>
       <c r="H87" s="8" t="s">
@@ -4577,6 +4605,10 @@
       </c>
       <c r="K87" s="2" t="s">
         <v>260</v>
+      </c>
+      <c r="O87" t="str">
+        <f>_xlfn.CONCAT("'",A87,"': '",G87,"',")</f>
+        <v>'4401': 'POSTAL_CITY: Missing Data',</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
@@ -4599,7 +4631,7 @@
         <v>97</v>
       </c>
       <c r="G88" s="2" t="str">
-        <f>_xlfn.CONCAT(F88,": ", E88)</f>
+        <f t="shared" si="3"/>
         <v>POSTAL_CITY: Unnecessary Spaces</v>
       </c>
       <c r="H88" s="4" t="s">
@@ -4613,6 +4645,10 @@
       </c>
       <c r="K88" s="2" t="s">
         <v>260</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" ref="O88:O96" si="5">_xlfn.CONCAT("'",A88,"': '",G88,"',")</f>
+        <v>'4402': 'POSTAL_CITY: Unnecessary Spaces',</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
@@ -4635,11 +4671,15 @@
         <v>97</v>
       </c>
       <c r="G89" s="2" t="str">
-        <f>_xlfn.CONCAT(F89,": ", E89)</f>
+        <f t="shared" si="3"/>
         <v>POSTAL_CITY: Invalid characters</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>260</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="5"/>
+        <v>'4403': 'POSTAL_CITY: Invalid characters',</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -4662,7 +4702,7 @@
         <v>97</v>
       </c>
       <c r="G90" s="2" t="str">
-        <f>_xlfn.CONCAT(F90,": ", E90)</f>
+        <f t="shared" si="3"/>
         <v>POSTAL_CITY: Invalid characters</v>
       </c>
       <c r="H90" t="s">
@@ -4673,6 +4713,10 @@
       </c>
       <c r="K90" s="2" t="s">
         <v>260</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="5"/>
+        <v>'4403': 'POSTAL_CITY: Invalid characters',</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
@@ -4695,7 +4739,7 @@
         <v>97</v>
       </c>
       <c r="G91" s="2" t="str">
-        <f>_xlfn.CONCAT(F91,": ", E91)</f>
+        <f t="shared" si="3"/>
         <v>POSTAL_CITY: Invalid characters</v>
       </c>
       <c r="H91" t="s">
@@ -4706,6 +4750,10 @@
       </c>
       <c r="K91" s="2" t="s">
         <v>260</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="5"/>
+        <v>'4403': 'POSTAL_CITY: Invalid characters',</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
@@ -4728,7 +4776,7 @@
         <v>97</v>
       </c>
       <c r="G92" s="2" t="str">
-        <f>_xlfn.CONCAT(F92,": ", E92)</f>
+        <f t="shared" si="3"/>
         <v>POSTAL_CITY: Formatting Issue</v>
       </c>
       <c r="H92" t="s">
@@ -4739,6 +4787,10 @@
       </c>
       <c r="K92" s="2" t="s">
         <v>260</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="5"/>
+        <v>'4404': 'POSTAL_CITY: Formatting Issue',</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
@@ -4761,11 +4813,15 @@
         <v>97</v>
       </c>
       <c r="G93" s="2" t="str">
-        <f>_xlfn.CONCAT(F93,": ", E93)</f>
+        <f t="shared" si="3"/>
         <v>POSTAL_CITY: Contains digits</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>260</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="5"/>
+        <v>'4405': 'POSTAL_CITY: Contains digits',</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -4778,7 +4834,7 @@
       <c r="C94" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="17" t="s">
         <v>263</v>
       </c>
       <c r="E94" t="s">
@@ -4788,11 +4844,15 @@
         <v>97</v>
       </c>
       <c r="G94" s="2" t="str">
-        <f>_xlfn.CONCAT(F94,": ", E94)</f>
+        <f t="shared" si="3"/>
         <v>POSTAL_CITY: Invalid abbreviations</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>260</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="5"/>
+        <v>'4406': 'POSTAL_CITY: Invalid abbreviations',</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
@@ -4815,11 +4875,15 @@
         <v>97</v>
       </c>
       <c r="G95" s="2" t="str">
-        <f>_xlfn.CONCAT(F95,": ", E95)</f>
+        <f t="shared" si="3"/>
         <v>POSTAL_CITY: Duplicates</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>260</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="5"/>
+        <v>'4407': 'POSTAL_CITY: Duplicates',</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
@@ -4842,18 +4906,22 @@
         <v>97</v>
       </c>
       <c r="G96" s="2" t="str">
-        <f>_xlfn.CONCAT(F96,": ", E96)</f>
+        <f t="shared" si="3"/>
         <v>POSTAL_CITY: replacing šćčž to scz</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+      <c r="O96" t="str">
+        <f t="shared" si="5"/>
+        <v>'4408': 'POSTAL_CITY: replacing šćčž to scz',</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/raw_data/errors_list.xlsx
+++ b/src/raw_data/errors_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB454EB4-1025-0A45-AB86-065388161F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA0455-ADED-5644-BA19-7335BA592B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="1020" windowWidth="16880" windowHeight="21060" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
+    <workbookView xWindow="17180" yWindow="1020" windowWidth="16880" windowHeight="21080" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -859,9 +859,6 @@
     <t>Uniqueness</t>
   </si>
   <si>
-    <t>accuracy</t>
-  </si>
-  <si>
     <t>SURS</t>
   </si>
   <si>
@@ -875,6 +872,9 @@
   </si>
   <si>
     <t>Out of scope</t>
+  </si>
+  <si>
+    <t>validity</t>
   </si>
 </sst>
 </file>
@@ -1141,19 +1141,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B284FB57-23FC-3F49-8756-084DBE39D068}" name="Table1" displayName="Table1" ref="A1:M96" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:M96" xr:uid="{B284FB57-23FC-3F49-8756-084DBE39D068}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="POSTAL_CITY"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M96" xr:uid="{B284FB57-23FC-3F49-8756-084DBE39D068}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M96">
     <sortCondition ref="A1:A96"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{2381EC1C-CAEF-2B40-A59E-3E318B240A84}" name="error_id" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{104D2EA3-0F59-A84D-B736-EBB24D0061B0}" name="accuracy" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{104D2EA3-0F59-A84D-B736-EBB24D0061B0}" name="validity" dataDxfId="5"/>
     <tableColumn id="15" xr3:uid="{7C194715-91A2-9842-AA73-798B040C20D9}" name="consistency" dataDxfId="4"/>
     <tableColumn id="13" xr3:uid="{52555134-DE8C-044E-B981-BA20651B1632}" name="DQ dimension" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{A8B0951A-B83C-224F-9776-261B20693A5F}" name="Error_Type" dataDxfId="2"/>
@@ -1491,9 +1485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J92" sqref="J92"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1515,10 +1509,10 @@
         <v>221</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>261</v>
@@ -1551,12 +1545,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>1101</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
@@ -1587,12 +1581,12 @@
         <v>'1101': 'NAME: Missing Data',</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1102</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
@@ -1625,12 +1619,12 @@
         <v>'1102': 'NAME: Unnecessary Spaces',</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>1103</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16" t="s">
@@ -1663,12 +1657,12 @@
         <v>'1103': 'NAME: Invalid Characters',</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>1104</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
@@ -1699,12 +1693,12 @@
         <v>'1104': 'NAME: Formatting Issue',</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>1105</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
@@ -1737,12 +1731,12 @@
         <v>'1105': 'NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>1106</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
@@ -1771,12 +1765,12 @@
         <v>'1106': 'NAME: Two names in one field',</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>1107</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
@@ -1803,16 +1797,16 @@
         <v>'1107': 'NAME: Initials present',</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>1108</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>256</v>
@@ -1832,12 +1826,12 @@
         <v>'1108': 'NAME: replacing šćčž to scz',</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>1201</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16" t="s">
@@ -1868,12 +1862,12 @@
         <v>'1201': 'SURNAME: Missing Data',</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>1202</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
@@ -1906,12 +1900,12 @@
         <v>'1202': 'SURNAME: Unnecessary Spaces',</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>1203</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
@@ -1944,12 +1938,12 @@
         <v>'1203': 'SURNAME: Invalid Characters',</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>1204</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
@@ -1980,12 +1974,12 @@
         <v>'1204': 'SURNAME: Formatting Issue',</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>1205</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
@@ -2018,16 +2012,16 @@
         <v>'1205': 'SURNAME: Duplicates',</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>258</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>256</v>
@@ -2047,7 +2041,7 @@
         <v>'1206': 'SURNAME: replacing šćčž to scz',</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>2101</v>
       </c>
@@ -2083,7 +2077,7 @@
         <v>'2101': 'EMAIL: Missing Data',</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>2101</v>
       </c>
@@ -2121,7 +2115,7 @@
         <v>'2101': 'EMAIL: Missing Data',</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>2102</v>
       </c>
@@ -2153,7 +2147,7 @@
         <v>'2102': 'EMAIL: Unnecessary Spaces',</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>2103</v>
       </c>
@@ -2191,7 +2185,7 @@
         <v>'2103': 'EMAIL: Invalid Characters',</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>2103</v>
       </c>
@@ -2227,7 +2221,7 @@
         <v>'2103': 'EMAIL: Invalid Characters',</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>2104</v>
       </c>
@@ -2263,7 +2257,7 @@
         <v>'2104': 'EMAIL: Formatting Issue',</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>2105</v>
       </c>
@@ -2299,7 +2293,7 @@
         <v>'2105': 'EMAIL: Possibly Two Emails',</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>2106</v>
       </c>
@@ -2335,7 +2329,7 @@
         <v>'2106': 'EMAIL: Possibly Invalid domain',</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>3101</v>
       </c>
@@ -2373,7 +2367,7 @@
         <v>'3101': 'PHONE: Missing Data',</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>3101</v>
       </c>
@@ -2411,7 +2405,7 @@
         <v>'3101': 'PHONE: Missing Data',</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>3102</v>
       </c>
@@ -2443,7 +2437,7 @@
         <v>'3102': 'PHONE: Unnecessary Spaces',</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>3103</v>
       </c>
@@ -2479,7 +2473,7 @@
         <v>'3103': 'PHONE: Invalid characters',</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>3104</v>
       </c>
@@ -2515,7 +2509,7 @@
         <v>'3104': 'PHONE: Formatting Issue',</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>3105</v>
       </c>
@@ -2549,7 +2543,7 @@
         <v>'3105': 'PHONE: Too many digits',</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>3106</v>
       </c>
@@ -2578,7 +2572,7 @@
         <v>'3106': 'PHONE: Too little digits',</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>3107</v>
       </c>
@@ -2612,7 +2606,7 @@
         <v>'3107': 'PHONE: Two phone numbers',</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>3108</v>
       </c>
@@ -2621,7 +2615,7 @@
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>153</v>
@@ -2648,12 +2642,12 @@
         <v>'3108': 'PHONE: Different country format',</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>4101</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16" t="s">
@@ -2684,12 +2678,12 @@
         <v>'4101': 'STREET_NAME: Missing Data',</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>4101</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16" t="s">
@@ -2720,12 +2714,12 @@
         <v>'4101': 'STREET_NAME: Missing Data',</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>4102</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16" t="s">
@@ -2758,12 +2752,12 @@
         <v>'4102': 'STREET_NAME: Unnecessary Spaces',</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>4103</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16" t="s">
@@ -2794,12 +2788,12 @@
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4103</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
@@ -2826,12 +2820,12 @@
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4103</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16" t="s">
@@ -2858,12 +2852,12 @@
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4103</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16" t="s">
@@ -2890,12 +2884,12 @@
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4104</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="16" t="s">
@@ -2925,12 +2919,12 @@
         <v>'4104': 'STREET_NAME: Formatting Issue',</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>4105</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16" t="s">
@@ -2963,12 +2957,12 @@
         <v>'4105': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>4105</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16" t="s">
@@ -2997,12 +2991,12 @@
         <v>'4105': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>4105</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16" t="s">
@@ -3035,12 +3029,12 @@
         <v>'4105': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>4106</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16" t="s">
@@ -3073,12 +3067,12 @@
         <v>'4106': 'STREET_NAME: Contains variation of BŠ',</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>4106</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16" t="s">
@@ -3111,12 +3105,12 @@
         <v>'4106': 'STREET_NAME: Contains variation of BŠ',</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>4107</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="16" t="s">
@@ -3149,12 +3143,12 @@
         <v>'4107': 'STREET_NAME: Invalid abbreviations',</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>4108</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="16" t="s">
@@ -3185,12 +3179,12 @@
         <v>'4108': 'STREET_NAME: No space after full stop',</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>4109</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="16" t="s">
@@ -3219,12 +3213,12 @@
         <v>'4109': 'STREET_NAME: Only numbers',</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>4110</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="16" t="s">
@@ -3255,12 +3249,12 @@
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>4110</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16" t="s">
@@ -3291,12 +3285,12 @@
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>4110</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16" t="s">
@@ -3329,12 +3323,12 @@
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>4110</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="16" t="s">
@@ -3367,12 +3361,12 @@
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>4110</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16" t="s">
@@ -3405,12 +3399,12 @@
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>4110</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16" t="s">
@@ -3443,12 +3437,12 @@
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>4110</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16" t="s">
@@ -3481,12 +3475,12 @@
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>4110</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16" t="s">
@@ -3519,12 +3513,12 @@
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>4110</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="16" t="s">
@@ -3551,12 +3545,12 @@
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>4111</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16" t="s">
@@ -3587,12 +3581,12 @@
         <v>'4111': 'STREET_NAME: Starts with number',</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>4112</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16" t="s">
@@ -3621,12 +3615,12 @@
         <v>'4112': 'STREET_NAME: Cannot contain digit at the end',</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>4113</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16" t="s">
@@ -3650,16 +3644,16 @@
         <v>'4113': 'STREET_NAME: Invalid digit in Street',</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4114</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E61" t="s">
         <v>256</v>
@@ -3679,12 +3673,12 @@
         <v>'4114': 'STREET_NAME: replacing šćčž to scz',</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>4201</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16" t="s">
@@ -3715,12 +3709,12 @@
         <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>4201</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="16" t="s">
@@ -3751,12 +3745,12 @@
         <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>4202</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16" t="s">
@@ -3787,12 +3781,12 @@
         <v>'4202': 'HOUSE_NUMBER: Unnecessary spaces',</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>4203</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="16" t="s">
@@ -3825,12 +3819,12 @@
         <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>4203</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16" t="s">
@@ -3843,7 +3837,7 @@
         <v>5</v>
       </c>
       <c r="G66" s="2" t="str">
-        <f t="shared" ref="G66:G97" si="3">_xlfn.CONCAT(F66,": ", E66)</f>
+        <f t="shared" ref="G66:G96" si="3">_xlfn.CONCAT(F66,": ", E66)</f>
         <v>HOUSE_NUMBER: Contains variation of BŠ</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -3863,12 +3857,12 @@
         <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>4203</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16" t="s">
@@ -3899,12 +3893,12 @@
         <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>4204</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16" t="s">
@@ -3933,12 +3927,12 @@
         <v>'4204': 'HOUSE_NUMBER: No house number',</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>4204</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16" t="s">
@@ -3967,12 +3961,12 @@
         <v>'4204': 'HOUSE_NUMBER: No house number',</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
         <v>4205</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16" t="s">
@@ -4001,12 +3995,12 @@
         <v>'4205': 'HOUSE_NUMBER: invalid combination',</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
         <v>4206</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16" t="s">
@@ -4037,12 +4031,12 @@
         <v>'4206': 'HOUSE_NUMBER: Leading 0',</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
         <v>4207</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16" t="s">
@@ -4073,12 +4067,12 @@
         <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
         <v>4207</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16" t="s">
@@ -4109,12 +4103,12 @@
         <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
         <v>4207</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16" t="s">
@@ -4145,12 +4139,12 @@
         <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
         <v>4208</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16" t="s">
@@ -4181,12 +4175,12 @@
         <v>'4208': 'HOUSE_NUMBER: Contains roman numerals',</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4209</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" t="s">
@@ -4210,12 +4204,12 @@
         <v>'4209': 'HOUSE_NUMBER: Ends with full stop',</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4210</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" t="s">
@@ -4239,12 +4233,12 @@
         <v>'4210': 'HOUSE_NUMBER: More than one number present',</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4211</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" t="s">
@@ -4268,12 +4262,12 @@
         <v>'4211': 'HOUSE_NUMBER: Does not start with digit',</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4212</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" t="s">
@@ -4297,12 +4291,12 @@
         <v>'4212': 'HOUSE_NUMBER: More than 4 digits',</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>4301</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>97</v>
@@ -4337,12 +4331,12 @@
         <v>'4301': 'ZIPCODE: Missing Data',</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
         <v>4302</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>97</v>
@@ -4377,12 +4371,12 @@
         <v>'4302': 'ZIPCODE: Unnecessary Spaces',</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
         <v>4303</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>97</v>
@@ -4417,12 +4411,12 @@
         <v>'4303': 'ZIPCODE: invalid characters',</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>4304</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>97</v>
@@ -4455,12 +4449,12 @@
         <v>'4304': 'ZIPCODE: Less than 4',</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>4305</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>97</v>
@@ -4493,12 +4487,12 @@
         <v>'4305': 'ZIPCODE: More than 4',</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>4306</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>97</v>
@@ -4533,12 +4527,12 @@
         <v>'4306': 'ZIPCODE: Contains Letters',</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>4307</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>97</v>
@@ -4576,7 +4570,7 @@
         <v>4401</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>19</v>
@@ -4616,7 +4610,7 @@
         <v>4402</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>19</v>
@@ -4656,7 +4650,7 @@
         <v>4403</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>19</v>
@@ -4687,7 +4681,7 @@
         <v>4403</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>19</v>
@@ -4724,7 +4718,7 @@
         <v>4403</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C91" s="16" t="s">
         <v>19</v>
@@ -4761,7 +4755,7 @@
         <v>4404</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>19</v>
@@ -4798,7 +4792,7 @@
         <v>4405</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>19</v>
@@ -4829,7 +4823,7 @@
         <v>4406</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>19</v>
@@ -4860,7 +4854,7 @@
         <v>4407</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>19</v>
@@ -4891,7 +4885,7 @@
         <v>257</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>19</v>

--- a/src/raw_data/errors_list.xlsx
+++ b/src/raw_data/errors_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA0455-ADED-5644-BA19-7335BA592B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A1C209-B41B-6745-AC9B-FB62A6BEDD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17180" yWindow="1020" windowWidth="16880" windowHeight="21080" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="273">
   <si>
     <t>Error_ID</t>
   </si>
@@ -875,6 +875,12 @@
   </si>
   <si>
     <t>validity</t>
+  </si>
+  <si>
+    <t>Cesta 15 maja</t>
+  </si>
+  <si>
+    <t>Cesta 15. maja</t>
   </si>
 </sst>
 </file>
@@ -1485,9 +1491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3635,6 +3641,12 @@
       <c r="G60" s="2" t="str">
         <f t="shared" si="2"/>
         <v>STREET_NAME: Invalid digit in Street</v>
+      </c>
+      <c r="H60" t="s">
+        <v>271</v>
+      </c>
+      <c r="I60" t="s">
+        <v>272</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>260</v>
